--- a/flinkiproject/target/classes/com/flinki/Resources/String.xlsx
+++ b/flinkiproject/target/classes/com/flinki/Resources/String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11730"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,72 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>TestFCG@yopmail.com</t>
+    <t>AutoSpJ@yopmail.com</t>
   </si>
   <si>
-    <t>TestUQW@yopmail.com</t>
+    <t>AutomDU@yopmail.com</t>
   </si>
   <si>
-    <t>TestmZh@yopmail.com</t>
+    <t>AutokHe@yopmail.com</t>
   </si>
   <si>
-    <t>TestUuC@yopmail.com</t>
+    <t>AutohFE@yopmail.com</t>
   </si>
   <si>
-    <t>TestKuM@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestCen@yopmail.com</t>
-  </si>
-  <si>
-    <t>Testrlp@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestLko@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestwEy@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestPRJ@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestGiv@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestoUo@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestvNQ@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestOjw@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestTQv@yopmail.com</t>
-  </si>
-  <si>
-    <t>Testrel@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestvYf@yopmail.com</t>
-  </si>
-  <si>
-    <t>Testvrh@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestpEb@yopmail.com</t>
-  </si>
-  <si>
-    <t>TesthFv@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestHRt@yopmail.com</t>
-  </si>
-  <si>
-    <t>TestdOz@yopmail.com</t>
+    <t>AutofzX@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -567,7 +516,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1252,15 +1201,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0"/>
+    <col min="1" max="1" customWidth="true" width="27.8571428571429"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1288,91 +1237,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/flinkiproject/target/classes/com/flinki/Resources/String.xlsx
+++ b/flinkiproject/target/classes/com/flinki/Resources/String.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AutoSpJ@yopmail.com</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>AutofzX@yopmail.com</t>
+  </si>
+  <si>
+    <t>Autorxk@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1204,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -1237,6 +1240,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
